--- a/ResultadoEleicoesDistritos/PORTO_SANTO TIRSO.xlsx
+++ b/ResultadoEleicoesDistritos/PORTO_SANTO TIRSO.xlsx
@@ -597,64 +597,64 @@
         <v>18603</v>
       </c>
       <c r="H2" t="n">
-        <v>699</v>
+        <v>751</v>
       </c>
       <c r="I2" t="n">
-        <v>1799</v>
+        <v>1805</v>
       </c>
       <c r="J2" t="n">
-        <v>7511</v>
+        <v>7614</v>
       </c>
       <c r="K2" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="L2" t="n">
-        <v>2153</v>
+        <v>2165</v>
       </c>
       <c r="M2" t="n">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="N2" t="n">
-        <v>1292</v>
+        <v>1362</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R2" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="S2" t="n">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="T2" t="n">
-        <v>1385</v>
+        <v>1335</v>
       </c>
       <c r="U2" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V2" t="n">
-        <v>11965</v>
+        <v>11850</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>11962</v>
+        <v>11885</v>
       </c>
       <c r="Y2" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Z2" t="n">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="AA2" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
